--- a/biology/Zoologie/Jemadia_scomber/Jemadia_scomber.xlsx
+++ b/biology/Zoologie/Jemadia_scomber/Jemadia_scomber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jemadia scomber est une espèce de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jemadia scomber a été nommé par Herbert Druce en 1908[1].
-Nom vernaculaire
-Jemadia scomber se nomme Scomber Skipper ou Mammoth Skipper en anglais[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia scomber a été nommé par Herbert Druce en 1908.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia scomber se nomme Scomber Skipper ou Mammoth Skipper en anglais,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jemadia_scomber</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_scomber</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jemadia scomber est un papillon au corps trapu, au thorax noir rayé en long de bandes de poils blancs et à l'abdomen noir cerclé de blanc. 
 Les ailes sont de couleur bleu-noir marquées aux ailes antérieures d'une plage et de deux petites bandes blanches avec une ligne submarginale blanc argentée qui, aux ailes antérieures, se continue le long du bord interne et une bande blanche proche de la partie basale, très large aux ailes postérieures
@@ -553,36 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jemadia_scomber</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jemadia_scomber</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -607,14 +628,87 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jemadia scomber est présent au Pérou[1].
-Biotope
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia scomber est présent au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jemadia_scomber</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_scomber</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Jemadia scomber, sur Wikimedia CommonsJemadia scomber, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jemadia_scomber</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_scomber</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
